--- a/cageball_data.xlsx
+++ b/cageball_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magne.syljuasen\kode\streamlit-cageball\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magne\Progg\streamlit-cageball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A419B969-0D87-473B-920F-36CA957A586C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAAE287-A6B5-4B48-94B7-490280FB70A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{0AF25387-21B8-479A-80EA-E83E544C9DD3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0AF25387-21B8-479A-80EA-E83E544C9DD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Magne</t>
   </si>
@@ -160,9 +160,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +200,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -306,7 +306,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -448,7 +448,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -459,17 +459,17 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -525,11 +525,13 @@
         <v>45636</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -547,7 +549,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -563,7 +565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -571,12 +573,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -584,7 +586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -592,7 +594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -600,12 +602,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -613,7 +615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>

--- a/cageball_data.xlsx
+++ b/cageball_data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magne\Progg\streamlit-cageball\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magne.syljuasen\kode\streamlit-cageball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAAE287-A6B5-4B48-94B7-490280FB70A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81D2F17-46CF-443E-BDDD-F7FB0B1B4909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0AF25387-21B8-479A-80EA-E83E544C9DD3}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="18240" windowHeight="29040" xr2:uid="{0AF25387-21B8-479A-80EA-E83E544C9DD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>Magne</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Rob</t>
   </si>
 </sst>
 </file>
@@ -160,9 +163,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013–2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +203,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013–2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -306,7 +309,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013–2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -448,7 +451,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -456,20 +459,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40694A8A-5F97-430C-9567-781D025BA25C}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.1796875" style="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -525,7 +528,7 @@
         <v>45636</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -549,52 +552,70 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -602,29 +623,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R12" xr:uid="{40694A8A-5F97-430C-9567-781D025BA25C}"/>
+  <autoFilter ref="A1:R13" xr:uid="{40694A8A-5F97-430C-9567-781D025BA25C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/cageball_data.xlsx
+++ b/cageball_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magne.syljuasen\kode\streamlit-cageball\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magne\Progg\streamlit-cageball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81D2F17-46CF-443E-BDDD-F7FB0B1B4909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4E889C-5B31-4EA7-BAE2-2CFAFFC0E983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="18240" windowHeight="29040" xr2:uid="{0AF25387-21B8-479A-80EA-E83E544C9DD3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0AF25387-21B8-479A-80EA-E83E544C9DD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>Magne</t>
   </si>
@@ -163,9 +163,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -203,7 +203,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -309,7 +309,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -451,7 +451,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -462,17 +462,17 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -528,14 +528,16 @@
         <v>45636</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -552,7 +554,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -574,7 +576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -585,7 +587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -593,7 +595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -604,7 +606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -615,7 +617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -623,7 +625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -631,7 +633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -642,7 +644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -653,7 +655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
